--- a/test_update.xlsx
+++ b/test_update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phanx\Downloads\get_name_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B03CDC52-5C3F-4C51-B1A6-9FCD1096100F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FD4D2E-8B1E-4D6E-A788-F179B2D19885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="78">
   <si>
     <t>chu_de_name</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Null</t>
   </si>
 </sst>
 </file>
@@ -628,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,6 +684,12 @@
       <c r="E2">
         <v>9</v>
       </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -698,6 +707,12 @@
       <c r="E3">
         <v>9</v>
       </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -715,6 +730,12 @@
       <c r="E4">
         <v>9</v>
       </c>
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -732,6 +753,12 @@
       <c r="E5">
         <v>9</v>
       </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -749,6 +776,12 @@
       <c r="E6">
         <v>9</v>
       </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -766,6 +799,12 @@
       <c r="E7">
         <v>9</v>
       </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -783,6 +822,12 @@
       <c r="E8">
         <v>9</v>
       </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -800,6 +845,12 @@
       <c r="E9">
         <v>9</v>
       </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -817,6 +868,12 @@
       <c r="E10">
         <v>9</v>
       </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -834,6 +891,12 @@
       <c r="E11">
         <v>9</v>
       </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -851,6 +914,12 @@
       <c r="E12">
         <v>9</v>
       </c>
+      <c r="F12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -868,6 +937,12 @@
       <c r="E13">
         <v>9</v>
       </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -885,6 +960,12 @@
       <c r="E14">
         <v>9</v>
       </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -902,6 +983,12 @@
       <c r="E15">
         <v>9</v>
       </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -919,8 +1006,14 @@
       <c r="E16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>123</v>
       </c>
@@ -936,8 +1029,14 @@
       <c r="E17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>124</v>
       </c>
@@ -953,8 +1052,14 @@
       <c r="E18">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>125</v>
       </c>
@@ -970,8 +1075,14 @@
       <c r="E19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>126</v>
       </c>
@@ -987,8 +1098,14 @@
       <c r="E20">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>127</v>
       </c>
@@ -1004,8 +1121,14 @@
       <c r="E21">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>128</v>
       </c>
@@ -1021,8 +1144,14 @@
       <c r="E22">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>129</v>
       </c>
@@ -1038,8 +1167,14 @@
       <c r="E23">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>130</v>
       </c>
@@ -1055,8 +1190,14 @@
       <c r="E24">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>131</v>
       </c>
@@ -1072,8 +1213,14 @@
       <c r="E25">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>132</v>
       </c>
@@ -1089,8 +1236,14 @@
       <c r="E26">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>133</v>
       </c>
@@ -1106,8 +1259,14 @@
       <c r="E27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>134</v>
       </c>
@@ -1123,8 +1282,14 @@
       <c r="E28">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>135</v>
       </c>
@@ -1140,8 +1305,14 @@
       <c r="E29">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>136</v>
       </c>
@@ -1157,8 +1328,14 @@
       <c r="E30">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>137</v>
       </c>
@@ -1174,8 +1351,14 @@
       <c r="E31">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>138</v>
       </c>
@@ -1191,8 +1374,14 @@
       <c r="E32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>139</v>
       </c>
@@ -1208,8 +1397,14 @@
       <c r="E33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>140</v>
       </c>
@@ -1225,8 +1420,14 @@
       <c r="E34">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>141</v>
       </c>
@@ -1242,8 +1443,14 @@
       <c r="E35">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>142</v>
       </c>
@@ -1258,6 +1465,12 @@
       </c>
       <c r="E36">
         <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
